--- a/Manuscript/tables/tables.xlsx
+++ b/Manuscript/tables/tables.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhihin/Documents/GitHub/q96k97/Manuscript/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A7BDF-ADC1-C745-8050-B1C0B5347EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2199739-3771-5F44-9ABD-9676DB96DD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRE Enrichment" sheetId="1" r:id="rId1"/>
-    <sheet name="Mouse" sheetId="2" r:id="rId2"/>
+    <sheet name="CellLineDatasets" sheetId="3" r:id="rId2"/>
+    <sheet name="Mouse" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,93 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
   <si>
     <t>Comparison</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3' IRE-like gene enrichment </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5' IRE-like gene enrichment </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3' strict IRE gene enrichment </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5' strict IRE gene enrichment </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-value</t>
-    </r>
   </si>
   <si>
     <r>
@@ -348,6 +266,406 @@
   <si>
     <t>12 months old, wild-type (+/+)</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Differences between cerebellum and temporal cortex tissue</t>
+  </si>
+  <si>
+    <t>Cerebellum vs. temporal cortex in controls</t>
+  </si>
+  <si>
+    <t>Cerebellum vs. temporal cortex in AD</t>
+  </si>
+  <si>
+    <t>Cerebellum vs. temporal cortex in PA</t>
+  </si>
+  <si>
+    <t>Cerebellum vs. temporal cortex in PSP</t>
+  </si>
+  <si>
+    <t>Down: 10,925, Up: 9,302</t>
+  </si>
+  <si>
+    <t>Down: 11,966, Up: 9,950</t>
+  </si>
+  <si>
+    <t>Down: 10,200, Up: 8,737</t>
+  </si>
+  <si>
+    <t>Down: 11,552, Up: 9,576</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All predicted 5' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All predicted 3' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canonical 3' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canonical 5' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-value</t>
+    </r>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>GEO Accession</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Transcriptional profiling of ICL670 treated K562 cells</t>
+  </si>
+  <si>
+    <t>GSE11670</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Affymetrix Human Genome U133 Plus 2.0 Array</t>
+  </si>
+  <si>
+    <t>Control (untreated)</t>
+  </si>
+  <si>
+    <t>Iron chelator deferasirox (10uM)</t>
+  </si>
+  <si>
+    <t>Iron chelator deferasirox (50uM)</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Iron chelator deferasirox (10uM) vs. control</t>
+  </si>
+  <si>
+    <t>Iron chelator deferasirox (50uM) vs. control</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All predicted 3' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All predicted 5' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canonical 3' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canonical 5' IRE gene enrichment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>GSE21305</t>
+  </si>
+  <si>
+    <t>Profiling neuroblastoma SH-SY5Y with Paraquat treatment</t>
+  </si>
+  <si>
+    <t>Affymetrix Human Exon 1.0 ST Array [transcript (gene) version]</t>
+  </si>
+  <si>
+    <t>Paraquat</t>
+  </si>
+  <si>
+    <t>Paraquat vs. control</t>
+  </si>
+  <si>
+    <t>Iron chelator deferasirox (50uM) vs. Iron chelator deferasirox (10uM)</t>
+  </si>
+  <si>
+    <t>Down: 12; Up: 89</t>
+  </si>
+  <si>
+    <t>Down: 2,961; Up: 2,119</t>
+  </si>
+  <si>
+    <t>Down: 431; Up: 483</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Oxidative Stress</t>
+  </si>
+  <si>
+    <t>Poor Mitochondrial Reponses to Oxidative Stress in a Subset of Autism Spectral Disorder Patients</t>
+  </si>
+  <si>
+    <t>GSE143155</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>Cell Type / Line</t>
+  </si>
+  <si>
+    <t>K562 cells</t>
+  </si>
+  <si>
+    <t>SH-SY5Y cells</t>
+  </si>
+  <si>
+    <t>Primary fibroblasts</t>
+  </si>
+  <si>
+    <t>Hypoxia</t>
+  </si>
+  <si>
+    <t>Renal Proximal Tube Epithelial Cells at 24h and 1% oxygen</t>
+  </si>
+  <si>
+    <t>Passage 4 renal proximal tubule epithelial cells</t>
+  </si>
+  <si>
+    <t>GSE12792</t>
+  </si>
+  <si>
+    <t>Affymetrix Human Genome U133A Array</t>
+  </si>
+  <si>
+    <t>Normoxia</t>
+  </si>
+  <si>
+    <t>Hypoxia vs. normoxia</t>
+  </si>
+  <si>
+    <t>Down: 0; Up: 0</t>
+  </si>
+  <si>
+    <t>Down: 20; Up: 7</t>
+  </si>
+  <si>
+    <t>DE Probesets (FDR p-value &lt; 0.05)</t>
+  </si>
+  <si>
+    <t>Hypoxia responsive genes in human Burkitt’s lymphoma cell line, P493-6</t>
+  </si>
+  <si>
+    <t>B lymphocyte cell line, P493-6</t>
+  </si>
+  <si>
+    <t>GSE4086</t>
+  </si>
+  <si>
+    <t>Mature dendritic cells under hypoxic condition</t>
+  </si>
+  <si>
+    <t>Mature dendritic cells</t>
+  </si>
+  <si>
+    <t>GSE22282</t>
+  </si>
+  <si>
+    <t>Transcriptional effect of various iron treatments on Caco-2 cells.</t>
+  </si>
+  <si>
+    <t>GSE3573</t>
+  </si>
+  <si>
+    <t>Agilent-012097 Human 1A Microarray (V2) G4110B (Feature Number version)</t>
+  </si>
+  <si>
+    <t>Iron-free medium</t>
+  </si>
+  <si>
+    <t>DMEM-FBS medium with hemin added (iron overload)</t>
+  </si>
+  <si>
+    <t>DMEM-FBS medium)</t>
+  </si>
+  <si>
+    <t>Iron depletion / overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron-free medium with ferric ammonium citrate (FAC) added </t>
+  </si>
+  <si>
+    <t>Effect of iron deficiency: Iron-free medium with ferric ammonium citrate (FAC) added vs. iron-free medium</t>
+  </si>
+  <si>
+    <t>Effect of iron overload: DMEM-FBS medium with hemin added vs. DMEM-FBS medium</t>
+  </si>
+  <si>
+    <t>Untreated, with autism</t>
+  </si>
+  <si>
+    <t>Untreated, without autism</t>
+  </si>
+  <si>
+    <t>Treated with hydrogen peroxide, with autism</t>
+  </si>
+  <si>
+    <t>Treated with hydrogen peroxide, without autism</t>
+  </si>
+  <si>
+    <t>Untreated, with autism vs. Untreated, without autism</t>
+  </si>
+  <si>
+    <t>Treated with hydrogen peroxide, with autism vs. Treated with hydrogen peroxide, without autism</t>
+  </si>
+  <si>
+    <t>Treated with hydrogen peroxide, with autism vs. Untreated, with autism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treated with hydrogen peroxide, without autism vs. Untreated, without autism </t>
+  </si>
+  <si>
+    <t>Down: 165; Up: 163</t>
+  </si>
+  <si>
+    <t>Down: 175; Up: 160</t>
+  </si>
+  <si>
+    <t>Down: 14; Up: 7</t>
+  </si>
+  <si>
+    <t>Down: 0; Up: 2</t>
+  </si>
+  <si>
+    <t>Homo sapiens Caco-2 cells, originating from a human colorectal carcinoma</t>
+  </si>
+  <si>
+    <t>Down: 55; Up: 157</t>
+  </si>
+  <si>
+    <t>Down: 65; Up: 31</t>
+  </si>
+  <si>
+    <t>Table 1. Summary of cell line datasets.</t>
+  </si>
+  <si>
+    <t>Table 2. Results for differential gene expression and IRE gene set enrichment</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +676,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -425,8 +743,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +826,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -662,21 +1021,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -685,9 +1035,6 @@
     <xf numFmtId="11" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,15 +1063,129 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,16 +1208,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -779,7 +1240,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10960100" y="9131300"/>
+          <a:off x="13792200" y="12026900"/>
           <a:ext cx="8648700" cy="2349500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -923,16 +1384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -955,8 +1416,277 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31610300" y="685800"/>
+          <a:off x="35814000" y="3492500"/>
           <a:ext cx="7937500" cy="4051300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17465C69-76FF-9F4C-980E-E85B2F3BB9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31026100" y="1993900"/>
+          <a:ext cx="7200900" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86B4510-62E2-884B-9650-5D53FA8CA0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31635700" y="965200"/>
+          <a:ext cx="4991100" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>401770</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF27721-A743-A04A-8081-B1D1C0EA4875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27846470" y="1574800"/>
+          <a:ext cx="3547929" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8ABA84-0096-2246-954F-259024B0322E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20637500" y="7594600"/>
+          <a:ext cx="6959600" cy="5194300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCE3CE0-142A-0A4E-801F-643B970980A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27368500" y="13639800"/>
+          <a:ext cx="4038600" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB6AD18-ED76-ED42-B867-E13019E9C8C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="14363700"/>
+          <a:ext cx="2260600" cy="1803400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,25 +1901,24 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N15" sqref="H1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
     <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34.83203125" customWidth="1"/>
@@ -1201,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="31"/>
@@ -1218,35 +1947,35 @@
         <v>0</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1"/>
-      <c r="P1" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="66" t="s">
-        <v>69</v>
+      <c r="P1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="U1" s="44"/>
       <c r="V1" s="44"/>
@@ -1257,10 +1986,10 @@
     </row>
     <row r="2" spans="1:26" ht="57" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="15">
         <v>1.09E-2</v>
@@ -1274,47 +2003,47 @@
       <c r="F2" s="16">
         <v>0.77</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="54">
+      <c r="H2" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="51">
         <v>1.09E-2</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="46">
         <v>0.128</v>
       </c>
-      <c r="M2" s="48">
+      <c r="M2" s="47">
         <v>0.77</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="47">
         <v>0.77</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>134</v>
       </c>
-      <c r="R2" s="62">
+      <c r="R2" s="58">
         <v>56.71641791044776</v>
       </c>
       <c r="S2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="T2" s="61" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="17">
         <v>9.0300000000000004E-15</v>
@@ -1328,45 +2057,45 @@
       <c r="F3" s="17">
         <v>8.9500000000000001E-8</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="55">
+      <c r="H3" s="75"/>
+      <c r="I3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="52">
         <v>9.0300000000000004E-15</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="52">
         <v>2.4399999999999999E-14</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="52">
         <v>4.4999999999999998E-15</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="52">
         <v>8.9500000000000001E-8</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="12">
         <v>130</v>
       </c>
-      <c r="R3" s="63">
+      <c r="R3" s="59">
         <v>46.153846153846153</v>
       </c>
       <c r="S3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="56" t="s">
         <v>60</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="18">
         <v>1.16E-4</v>
@@ -1380,47 +2109,47 @@
       <c r="F4" s="19">
         <v>0.77</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="56">
+      <c r="H4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="53">
         <v>1.16E-4</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="53">
         <v>1.39E-3</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="53">
         <v>2.01E-2</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="50">
         <v>0.77</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="12">
         <v>44</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="59">
         <v>54.54545454545454</v>
       </c>
       <c r="S4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="57" t="s">
         <v>61</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="18">
         <v>5.2099999999999998E-4</v>
@@ -1434,45 +2163,45 @@
       <c r="F5" s="18">
         <v>6.8200000000000004E-5</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="56">
+      <c r="H5" s="75"/>
+      <c r="I5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="53">
         <v>5.2099999999999998E-4</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="53">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="53">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="53">
         <v>6.8200000000000004E-5</v>
       </c>
-      <c r="P5" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="68">
+      <c r="P5" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="64">
         <v>164</v>
       </c>
-      <c r="R5" s="69">
+      <c r="R5" s="65">
         <v>40.243902439024396</v>
       </c>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="67" t="s">
         <v>62</v>
-      </c>
-      <c r="T5" s="71" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="20">
         <v>0.19900000000000001</v>
@@ -1486,29 +2215,29 @@
       <c r="F6" s="20">
         <v>0.28899999999999998</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="55">
+      <c r="H6" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="52">
         <v>1.8100000000000001E-22</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="52">
         <v>3.4500000000000002E-22</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="52">
         <v>1.43E-12</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="54">
         <v>3.9899999999999998E-2</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q6">
         <v>236</v>
@@ -1518,7 +2247,7 @@
     <row r="7" spans="1:26" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5">
         <v>0.11600000000000001</v>
@@ -1532,32 +2261,32 @@
       <c r="F7" s="5">
         <v>0.97899999999999998</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="55">
+      <c r="H7" s="75"/>
+      <c r="I7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="52">
         <v>3.5800000000000002E-11</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="52">
         <v>5.1700000000000002E-13</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="52">
         <v>1.39E-6</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="54">
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="21">
         <v>1.0999999999999999E-18</v>
@@ -1571,32 +2300,32 @@
       <c r="F8" s="21">
         <v>1.27E-8</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="56">
+      <c r="H8" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="53">
         <v>1.16E-4</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="53">
         <v>1.39E-3</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="53">
         <v>2.01E-2</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="50">
         <v>0.77</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="23">
         <v>3.6700000000000001E-15</v>
@@ -1610,30 +2339,30 @@
       <c r="F9" s="23">
         <v>3.3099999999999998E-5</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="56">
+      <c r="H9" s="75"/>
+      <c r="I9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="53">
         <v>5.2099999999999998E-4</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="53">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="53">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="53">
         <v>6.8200000000000004E-5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="70" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="21">
         <v>1.1299999999999999E-24</v>
@@ -1645,34 +2374,34 @@
         <v>2.2799999999999999E-13</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="56">
+      <c r="I10" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="53">
         <v>1.9E-3</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="53">
         <v>1.8400000000000001E-3</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="49">
         <v>0.158</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="50">
         <v>0.158</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="24">
         <v>5.2099999999999998E-4</v>
@@ -1686,32 +2415,32 @@
       <c r="F11" s="25">
         <v>0.77</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="55">
+      <c r="H11" s="75"/>
+      <c r="I11" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="52">
         <v>9.1199999999999998E-22</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="52">
         <v>2.1000000000000001E-22</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="52">
         <v>5.3500000000000002E-16</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="55">
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="26">
         <v>6.8000000000000005E-35</v>
@@ -1724,12 +2453,33 @@
       </c>
       <c r="F12" s="26">
         <v>1.26E-21</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
+        <v>2.8199999999999998E-269</v>
+      </c>
+      <c r="N12" s="52">
+        <v>1.5999999999999999E-81</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="26">
         <v>1.5500000000000001E-35</v>
@@ -1742,12 +2492,31 @@
       </c>
       <c r="F13" s="26">
         <v>7.4000000000000005E-23</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0</v>
+      </c>
+      <c r="L13" s="52">
+        <v>0</v>
+      </c>
+      <c r="M13" s="52">
+        <v>7.7100000000000002E-302</v>
+      </c>
+      <c r="N13" s="52">
+        <v>9.3500000000000001E-92</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="26">
         <v>1.8500000000000001E-27</v>
@@ -1760,12 +2529,30 @@
       </c>
       <c r="F14" s="27">
         <v>1.07E-17</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="52">
+        <v>1.8699999999999999E-153</v>
+      </c>
+      <c r="L14" s="52">
+        <v>5.8800000000000001E-160</v>
+      </c>
+      <c r="M14" s="52">
+        <v>1.22E-89</v>
+      </c>
+      <c r="N14" s="52">
+        <v>1.3100000000000001E-88</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="56" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="26">
         <v>3.7700000000000002E-30</v>
@@ -1778,12 +2565,31 @@
       </c>
       <c r="F15" s="26">
         <v>2.46E-16</v>
+      </c>
+      <c r="H15" s="73"/>
+      <c r="I15" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="52">
+        <v>0</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0</v>
+      </c>
+      <c r="M15" s="52">
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
+        <v>4.7400000000000002E-104</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="28">
         <v>1.6900000000000001E-10</v>
@@ -1801,7 +2607,7 @@
     <row r="17" spans="1:6" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
       <c r="B17" s="42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="30">
         <v>0.19900000000000001</v>
@@ -1821,14 +2627,14 @@
       <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="A19" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
@@ -5768,11 +6574,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2EA2F-E52A-7C45-83D8-76F311E36F6C}">
+  <dimension ref="A1:W76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="87" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="87" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="88" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="88"/>
+    <col min="9" max="9" width="24" style="87" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="87" customWidth="1"/>
+    <col min="11" max="15" width="18.5" style="86" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="88"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="77" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="94"/>
+    </row>
+    <row r="3" spans="1:16" s="81" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="80">
+        <v>2</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="105">
+        <v>1.07E-4</v>
+      </c>
+      <c r="L3" s="105">
+        <v>3.7299999999999999E-5</v>
+      </c>
+      <c r="M3" s="105">
+        <v>5.1399999999999999E-6</v>
+      </c>
+      <c r="N3" s="105">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="O3" s="86"/>
+    </row>
+    <row r="4" spans="1:16" s="81" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="98"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="80">
+        <v>2</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="105">
+        <v>1.49E-5</v>
+      </c>
+      <c r="L4" s="105">
+        <v>3.8300000000000003E-5</v>
+      </c>
+      <c r="M4" s="105">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="N4" s="105">
+        <v>3.7800000000000003E-4</v>
+      </c>
+      <c r="O4" s="86"/>
+      <c r="P4" s="79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="99"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="84">
+        <v>2</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="106">
+        <v>1.07E-4</v>
+      </c>
+      <c r="L5" s="106">
+        <v>6.0800000000000001E-5</v>
+      </c>
+      <c r="M5" s="106">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="N5" s="106">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="O5" s="86"/>
+    </row>
+    <row r="6" spans="1:16" s="81" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="104"/>
+      <c r="B6" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="80">
+        <v>3</v>
+      </c>
+      <c r="I6" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="107">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="L6" s="107">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="M6" s="107">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="N6" s="101">
+        <v>0.104</v>
+      </c>
+      <c r="O6" s="86"/>
+    </row>
+    <row r="7" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="99"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="80">
+        <v>3</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="86"/>
+    </row>
+    <row r="8" spans="1:16" s="81" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="80">
+        <v>3</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="107">
+        <v>4.7899999999999999E-5</v>
+      </c>
+      <c r="L8" s="107">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="M8" s="107">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="N8" s="101">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="O8" s="86"/>
+    </row>
+    <row r="9" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A9" s="104"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="80">
+        <v>3</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="86"/>
+    </row>
+    <row r="10" spans="1:16" s="81" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="103">
+        <v>5</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="108">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="L10" s="86">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M10" s="86">
+        <v>1</v>
+      </c>
+      <c r="N10" s="86">
+        <v>1</v>
+      </c>
+      <c r="O10" s="86"/>
+    </row>
+    <row r="11" spans="1:16" s="81" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="99"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="84">
+        <v>5</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="86"/>
+    </row>
+    <row r="12" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="98"/>
+      <c r="B12" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="81">
+        <v>3</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="108">
+        <v>7.5900000000000002E-4</v>
+      </c>
+      <c r="L12" s="108">
+        <v>7.2599999999999997E-4</v>
+      </c>
+      <c r="M12" s="108">
+        <v>1.03E-2</v>
+      </c>
+      <c r="N12" s="108">
+        <v>3.8099999999999999E-6</v>
+      </c>
+      <c r="O12" s="86"/>
+    </row>
+    <row r="13" spans="1:16" s="81" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A13" s="98"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="81">
+        <v>3</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="108">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="L13" s="108">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="M13" s="86">
+        <v>0.129</v>
+      </c>
+      <c r="N13" s="108">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="O13" s="86"/>
+    </row>
+    <row r="14" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A14" s="98"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="81">
+        <v>3</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="86">
+        <v>1</v>
+      </c>
+      <c r="L14" s="86">
+        <v>1</v>
+      </c>
+      <c r="M14" s="86">
+        <v>1</v>
+      </c>
+      <c r="N14" s="86">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="O14" s="86"/>
+    </row>
+    <row r="15" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A15" s="97"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="84">
+        <v>3</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="83">
+        <v>1</v>
+      </c>
+      <c r="L15" s="83">
+        <v>1</v>
+      </c>
+      <c r="M15" s="83">
+        <v>1</v>
+      </c>
+      <c r="N15" s="83">
+        <v>1</v>
+      </c>
+      <c r="O15" s="86"/>
+    </row>
+    <row r="16" spans="1:16" s="81" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A16" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="81">
+        <v>3</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="86">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="L16" s="86">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="M16" s="86">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="N16" s="86">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="O16" s="86"/>
+    </row>
+    <row r="17" spans="1:15" s="81" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="98"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="84">
+        <v>3</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="86"/>
+    </row>
+    <row r="18" spans="1:15" s="81" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="98"/>
+      <c r="B18" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="81">
+        <v>2</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="105">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="L18" s="105">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M18" s="86">
+        <v>0.41</v>
+      </c>
+      <c r="N18" s="86">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="O18" s="86"/>
+    </row>
+    <row r="19" spans="1:15" s="81" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="98"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="84">
+        <v>2</v>
+      </c>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="86"/>
+    </row>
+    <row r="20" spans="1:15" s="81" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="98"/>
+      <c r="B20" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="81">
+        <v>3</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="108">
+        <v>1.63E-4</v>
+      </c>
+      <c r="L20" s="108">
+        <v>1.63E-4</v>
+      </c>
+      <c r="M20" s="108">
+        <v>1.63E-4</v>
+      </c>
+      <c r="N20" s="108">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="O20" s="86"/>
+    </row>
+    <row r="21" spans="1:15" s="81" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="97"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="84">
+        <v>3</v>
+      </c>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="86"/>
+    </row>
+    <row r="22" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="97"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+    </row>
+    <row r="23" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="98"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+    </row>
+    <row r="24" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="98"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+    </row>
+    <row r="25" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="98"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+    </row>
+    <row r="26" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="98"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+    </row>
+    <row r="27" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="98"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+    </row>
+    <row r="28" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="98"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+    </row>
+    <row r="29" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="98"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+    </row>
+    <row r="30" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="98"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+    </row>
+    <row r="31" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="98"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+    </row>
+    <row r="32" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="98"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+    </row>
+    <row r="33" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="98"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+    </row>
+    <row r="34" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="98"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+    </row>
+    <row r="35" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="98"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+    </row>
+    <row r="36" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="98"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+    </row>
+    <row r="37" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="98"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
+    </row>
+    <row r="38" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="98"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+    </row>
+    <row r="39" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="98"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="86"/>
+    </row>
+    <row r="40" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="98"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+    </row>
+    <row r="41" spans="1:16" s="81" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="98"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="98"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+    </row>
+    <row r="43" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="98"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+    </row>
+    <row r="44" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="98"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+    </row>
+    <row r="45" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="98"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+    </row>
+    <row r="46" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="98"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+    </row>
+    <row r="47" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="98"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="86"/>
+    </row>
+    <row r="48" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="98"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
+      <c r="O48" s="86"/>
+    </row>
+    <row r="49" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="98"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="86"/>
+    </row>
+    <row r="50" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="98"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="86"/>
+    </row>
+    <row r="51" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="98"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+    </row>
+    <row r="52" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="98"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+    </row>
+    <row r="76" spans="23:23" ht="14" x14ac:dyDescent="0.15">
+      <c r="W76" s="92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CE461B-34C8-0C40-8B66-FFFE144B2399}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5784,110 +7751,88 @@
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="65" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="68">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58">
+        <v>56.71641791044776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="B3" s="68">
+        <v>2</v>
+      </c>
+      <c r="C3" s="59">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="B4" s="68">
+        <v>3</v>
+      </c>
+      <c r="C4" s="59">
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="B5" s="68">
+        <v>3</v>
+      </c>
+      <c r="C5" s="59"/>
+    </row>
+    <row r="6" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="72">
-        <v>134</v>
-      </c>
-      <c r="C2" s="62">
-        <v>56.71641791044776</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="70" x14ac:dyDescent="0.15">
-      <c r="A3" s="75" t="s">
+      <c r="B6" s="68">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="72">
-        <v>130</v>
-      </c>
-      <c r="C3" s="63">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="72">
-        <v>44</v>
-      </c>
-      <c r="C4" s="63">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="61"/>
-    </row>
-    <row r="7" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-    </row>
-    <row r="8" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="64">
+        <v>2</v>
+      </c>
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="43"/>
-      <c r="C8" s="63"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:5" s="68" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
-      <c r="C9" s="63"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="61"/>
+      <c r="E9" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
